--- a/jupyter_notebooks/file/input/repair_priority_v0/network.xlsx
+++ b/jupyter_notebooks/file/input/repair_priority_v0/network.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FBK106\Documents\Repositories\ResiliencyTool\jupyter_notebooks\file\input\repair_priority_v0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\ResiliencyTool\jupyter_notebooks\file\input\repair_priority_v0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E15DB2-9DA0-457E-A64C-771676E8AF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD8E79C-5AF4-431A-95DD-9794780B5AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{D3DCB828-FBC6-4B5F-B916-8216FBF30931}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="13" xr2:uid="{D3DCB828-FBC6-4B5F-B916-8216FBF30931}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation" sheetId="12" r:id="rId1"/>
@@ -676,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -686,7 +686,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -971,15 +970,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>146</v>
       </c>
@@ -990,7 +989,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -1016,7 +1015,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -1027,7 +1026,7 @@
         <v>44562.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -1050,21 +1049,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1127,21 +1126,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1207,19 +1206,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1244,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1259,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1273,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -1301,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -1315,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -1329,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -1343,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1371,7 +1370,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1385,7 +1384,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -1399,7 +1398,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -1413,7 +1412,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -1427,7 +1426,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -1441,7 +1440,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -1469,14 +1468,14 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="12" customWidth="1"/>
-    <col min="10" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -1508,7 +1507,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -1540,7 +1539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>DATE(2022,1,1)+TIME(0,0,0)</f>
         <v>44562</v>
@@ -1573,7 +1572,7 @@
         <v>19.934894485517049</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f>A3+TIME(1,0,0)</f>
         <v>44562.041666666664</v>
@@ -1606,7 +1605,7 @@
         <v>23.308727319461724</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A50" si="0">A4+TIME(1,0,0)</f>
         <v>44562.083333333328</v>
@@ -1639,7 +1638,7 @@
         <v>17.474943310487475</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>44562.124999999993</v>
@@ -1672,7 +1671,7 @@
         <v>15.424210251501449</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>44562.166666666657</v>
@@ -1705,7 +1704,7 @@
         <v>13.129585685334924</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>44562.208333333321</v>
@@ -1738,7 +1737,7 @@
         <v>21.605120970748523</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>44562.249999999985</v>
@@ -1771,7 +1770,7 @@
         <v>15.049400673234874</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>44562.29166666665</v>
@@ -1804,7 +1803,7 @@
         <v>15.882207877115526</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>44562.333333333314</v>
@@ -1837,7 +1836,7 @@
         <v>17.353116948353374</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>44562.374999999978</v>
@@ -1870,7 +1869,7 @@
         <v>19.733441000213475</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>44562.416666666642</v>
@@ -1903,7 +1902,7 @@
         <v>11.638532965343124</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>44562.458333333307</v>
@@ -1936,7 +1935,7 @@
         <v>22.194872517460176</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>44562.499999999971</v>
@@ -1969,7 +1968,7 @@
         <v>4.5310178812890678</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>44562.541666666635</v>
@@ -2002,7 +2001,7 @@
         <v>11.242507011693474</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>44562.583333333299</v>
@@ -2035,7 +2034,7 @@
         <v>14.748263744983225</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>44562.624999999964</v>
@@ -2068,7 +2067,7 @@
         <v>22.813796021891275</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>44562.666666666628</v>
@@ -2101,7 +2100,7 @@
         <v>16.953457419080074</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>44562.708333333292</v>
@@ -2134,7 +2133,7 @@
         <v>4.1637255327531282</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>44562.749999999956</v>
@@ -2167,7 +2166,7 @@
         <v>17.949039470568223</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>44562.791666666621</v>
@@ -2200,7 +2199,7 @@
         <v>4.1869132005201086</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>44562.833333333285</v>
@@ -2233,7 +2232,7 @@
         <v>29.493936915211602</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>44562.874999999949</v>
@@ -2266,7 +2265,7 @@
         <v>18.388638835419776</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>44562.916666666613</v>
@@ -2299,7 +2298,7 @@
         <v>13.7261820081086</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>44562.958333333278</v>
@@ -2332,7 +2331,7 @@
         <v>17.586398107617278</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>44562.999999999942</v>
@@ -2365,7 +2364,7 @@
         <v>11.49931354553855</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>44563.041666666606</v>
@@ -2398,7 +2397,7 @@
         <v>22.647110025550674</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>44563.08333333327</v>
@@ -2431,7 +2430,7 @@
         <v>7.4130677135893501</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>44563.124999999935</v>
@@ -2464,7 +2463,7 @@
         <v>17.489085175952276</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>44563.166666666599</v>
@@ -2497,7 +2496,7 @@
         <v>21.517920423466951</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>44563.208333333263</v>
@@ -2530,7 +2529,7 @@
         <v>12.393034162390125</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>44563.249999999927</v>
@@ -2563,7 +2562,7 @@
         <v>10.019924684746254</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>44563.291666666591</v>
@@ -2596,7 +2595,7 @@
         <v>25.006584262143477</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>44563.333333333256</v>
@@ -2629,7 +2628,7 @@
         <v>21.925634063601073</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>44563.37499999992</v>
@@ -2662,7 +2661,7 @@
         <v>14.208750570977301</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>44563.416666666584</v>
@@ -2695,7 +2694,7 @@
         <v>29.827116139559575</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>44563.458333333248</v>
@@ -2728,7 +2727,7 @@
         <v>22.553314388050197</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>44563.499999999913</v>
@@ -2761,7 +2760,7 @@
         <v>12.735776579379834</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>44563.541666666577</v>
@@ -2794,7 +2793,7 @@
         <v>13.285828600959924</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>44563.583333333241</v>
@@ -2827,7 +2826,7 @@
         <v>13.300729578010376</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>44563.624999999905</v>
@@ -2860,7 +2859,7 @@
         <v>26.295067749104504</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>44563.66666666657</v>
@@ -2893,7 +2892,7 @@
         <v>22.847309825630326</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>44563.708333333234</v>
@@ -2926,7 +2925,7 @@
         <v>17.792331483055751</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44563.749999999898</v>
@@ -2959,7 +2958,7 @@
         <v>15.68739580992785</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>44563.791666666562</v>
@@ -2992,7 +2991,7 @@
         <v>2.6307975795397875</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>44563.833333333227</v>
@@ -3025,7 +3024,7 @@
         <v>6.4264870106351673</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>44563.874999999891</v>
@@ -3058,7 +3057,7 @@
         <v>17.454674410976001</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>44563.916666666555</v>
@@ -3091,7 +3090,7 @@
         <v>22.015293099134826</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>44563.958333333219</v>
@@ -3135,29 +3134,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA625533-3B9A-44F8-8593-9BC4C933B1AA}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -3174,9 +3175,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -3208,19 +3209,19 @@
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3267,7 +3268,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3346,7 +3347,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3371,7 +3372,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -3421,7 +3422,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -3571,7 +3572,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -3596,7 +3597,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -3621,7 +3622,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -3721,7 +3722,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -3757,33 +3758,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA2B7A3-5BF0-4668-9FF0-C3329253032F}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2:P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3839,7 +3840,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -3869,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -3899,7 +3900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -3929,7 +3930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -3989,7 +3990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -4049,7 +4050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -4109,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -4275,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>180</v>
       </c>
@@ -4365,7 +4366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>187</v>
       </c>
@@ -4410,15 +4411,15 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>166</v>
       </c>
@@ -4460,13 +4461,12 @@
       <c r="D2" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="7"/>
       <c r="G2" s="2" t="s">
         <v>105</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -4479,7 +4479,6 @@
       <c r="D3" t="s">
         <v>169</v>
       </c>
-      <c r="F3" s="7"/>
       <c r="G3" s="2" t="s">
         <v>105</v>
       </c>
@@ -4488,7 +4487,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>170</v>
       </c>
@@ -4501,13 +4500,12 @@
       <c r="D4" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="7"/>
       <c r="G4" s="2" t="s">
         <v>105</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>172</v>
       </c>
@@ -4520,14 +4518,13 @@
       <c r="D5" t="s">
         <v>171</v>
       </c>
-      <c r="F5" s="7"/>
       <c r="G5" s="2" t="s">
         <v>184</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>190</v>
       </c>
@@ -4540,7 +4537,6 @@
       <c r="D6" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="7"/>
       <c r="G6" s="2" t="s">
         <v>105</v>
       </c>
@@ -4549,7 +4545,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -4562,7 +4558,6 @@
       <c r="D7" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="7"/>
       <c r="G7" s="2" t="s">
         <v>105</v>
       </c>
@@ -4571,7 +4566,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>175</v>
       </c>
@@ -4584,7 +4579,6 @@
       <c r="D8" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="7"/>
       <c r="G8" s="2" t="s">
         <v>105</v>
       </c>
@@ -4593,7 +4587,7 @@
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>174</v>
       </c>
@@ -4606,7 +4600,6 @@
       <c r="D9" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="7"/>
       <c r="G9" s="2" t="s">
         <v>105</v>
       </c>
@@ -4615,7 +4608,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -4628,7 +4621,6 @@
       <c r="D10" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="7"/>
       <c r="G10" s="2" t="s">
         <v>105</v>
       </c>
@@ -4637,7 +4629,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>189</v>
       </c>
@@ -4673,27 +4665,27 @@
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4752,7 +4744,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4782,7 +4774,7 @@
       </c>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4812,7 +4804,7 @@
       </c>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4842,7 +4834,7 @@
       </c>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -4875,7 +4867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -4905,7 +4897,7 @@
       </c>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -4935,7 +4927,7 @@
       </c>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -4965,7 +4957,7 @@
       </c>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -4995,7 +4987,7 @@
       </c>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -5038,34 +5030,34 @@
       <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5148,7 +5140,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -5179,7 +5171,7 @@
       </c>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -5210,7 +5202,7 @@
       </c>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -5241,7 +5233,7 @@
       </c>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -5272,7 +5264,7 @@
       </c>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -5303,7 +5295,7 @@
       </c>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -5336,7 +5328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="M8" s="2"/>
       <c r="V8" s="2"/>
     </row>
@@ -5351,28 +5343,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5425,7 +5417,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -5459,27 +5451,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5529,7 +5521,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>

--- a/jupyter_notebooks/file/input/repair_priority_v0/network.xlsx
+++ b/jupyter_notebooks/file/input/repair_priority_v0/network.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\ResiliencyTool\jupyter_notebooks\file\input\repair_priority_v0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engie-my.sharepoint.com/personal/mn6461_engie_com/Documents/Dokumente/GitHub/reXplan-repo/jupyter_notebooks/file/input/repair_priority_v0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD8E79C-5AF4-431A-95DD-9794780B5AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4DD8E79C-5AF4-431A-95DD-9794780B5AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A720ABBB-3B85-415E-B6D7-872B521FAB57}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="13" xr2:uid="{D3DCB828-FBC6-4B5F-B916-8216FBF30931}"/>
+    <workbookView xWindow="-25320" yWindow="-8805" windowWidth="25440" windowHeight="15270" firstSheet="5" activeTab="14" xr2:uid="{D3DCB828-FBC6-4B5F-B916-8216FBF30931}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation" sheetId="12" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="cost" sheetId="10" r:id="rId12"/>
     <sheet name="profiles" sheetId="11" r:id="rId13"/>
     <sheet name="crews" sheetId="13" r:id="rId14"/>
+    <sheet name="static_generators" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -688,7 +689,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -970,7 +971,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -1049,7 +1050,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -1126,7 +1127,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
@@ -1206,7 +1207,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
@@ -1468,7 +1469,7 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="12" customWidth="1"/>
@@ -3134,11 +3135,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA625533-3B9A-44F8-8593-9BC4C933B1AA}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3166,6 +3167,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D073906-F8F8-4BBF-8CC8-446EC175314D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3175,7 +3188,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3209,7 +3222,7 @@
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -3762,7 +3775,7 @@
       <selection activeCell="P2" sqref="P2:P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
@@ -4411,7 +4424,7 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
@@ -4665,7 +4678,7 @@
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
@@ -5030,7 +5043,7 @@
       <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
@@ -5343,7 +5356,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
@@ -5451,7 +5464,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
